--- a/webroot/エクセル原本/請求書.xlsx
+++ b/webroot/エクセル原本/請求書.xlsx
@@ -1,3 +1,29 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFE713-EB26-48B0-9E05-652143974753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" activeTab="1" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="合計表" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
@@ -582,6 +608,933 @@
     <phoneticPr fontId="1"/>
   </si>
 </sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+  </numFmts>
+  <fonts count="23" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="33">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="109">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -884,7 +1837,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36:I36"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -901,27 +1854,27 @@
       <c r="C1" s="37"/>
       <c r="D1" s="37"/>
       <c r="E1" s="37"/>
-      <c r="F1" s="67" t="s">
+      <c r="F1" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" s="38" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="70"/>
-      <c r="B2" s="70"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="69"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="40"/>
@@ -929,19 +1882,19 @@
       <c r="C4" s="40"/>
       <c r="D4" s="40"/>
       <c r="E4" s="40"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="62"/>
-      <c r="H4" s="62"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
       <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="63"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="42" t="s">
         <v>19</v>
       </c>
@@ -950,11 +1903,11 @@
       <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="82"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
       <c r="F6" s="42" t="s">
         <v>20</v>
       </c>
@@ -1031,10 +1984,10 @@
       <c r="G11" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="66"/>
+      <c r="I11" s="72"/>
     </row>
     <row r="12" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="51"/>
@@ -1084,25 +2037,25 @@
     </row>
     <row r="16" spans="1:9" s="57" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="58"/>
-      <c r="D16" s="60" t="s">
+      <c r="D16" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
+      <c r="E16" s="78"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="78"/>
+      <c r="H16" s="78"/>
+      <c r="I16" s="78"/>
     </row>
     <row r="17" spans="1:9" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="58"/>
-      <c r="D17" s="61" t="s">
+      <c r="D17" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
     </row>
     <row r="18" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="59"/>
@@ -1116,41 +2069,41 @@
       <c r="I18" s="59"/>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="71" t="s">
+      <c r="A20" s="80" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
+      <c r="B20" s="80"/>
+      <c r="C20" s="80"/>
+      <c r="D20" s="80"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
     </row>
     <row r="21" spans="1:9" s="38" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="70">
+      <c r="A21" s="76">
         <f>A2</f>
         <v>0</v>
       </c>
-      <c r="B21" s="70"/>
-      <c r="F21" s="68">
+      <c r="B21" s="76"/>
+      <c r="F21" s="74">
         <f>F2</f>
         <v>0</v>
       </c>
-      <c r="G21" s="68"/>
-      <c r="H21" s="68"/>
-      <c r="I21" s="68"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="74"/>
+      <c r="I21" s="74"/>
     </row>
     <row r="22" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="69">
+      <c r="A22" s="75">
         <f>A3</f>
         <v>0</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="75"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="75"/>
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="40"/>
@@ -1158,22 +2111,22 @@
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
       <c r="E23" s="40"/>
-      <c r="F23" s="62" t="s">
+      <c r="F23" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="41"/>
     </row>
     <row r="24" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="63">
+      <c r="A24" s="81">
         <f>A5</f>
         <v>0</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63">
+      <c r="B24" s="81"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81">
         <f>E5</f>
         <v>0</v>
       </c>
@@ -1185,11 +2138,11 @@
       <c r="I24" s="41"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="64"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="64"/>
-      <c r="E25" s="64"/>
+      <c r="A25" s="82"/>
+      <c r="B25" s="82"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="82"/>
+      <c r="E25" s="82"/>
       <c r="F25" s="42" t="s">
         <v>20</v>
       </c>
@@ -1266,10 +2219,10 @@
       <c r="G30" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="65" t="s">
+      <c r="H30" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="66"/>
+      <c r="I30" s="72"/>
     </row>
     <row r="31" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="51">
@@ -1343,25 +2296,25 @@
     </row>
     <row r="35" spans="1:9" s="57" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="58"/>
-      <c r="D35" s="60" t="s">
+      <c r="D35" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="60"/>
-      <c r="F35" s="60"/>
-      <c r="G35" s="60"/>
-      <c r="H35" s="60"/>
-      <c r="I35" s="60"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="78"/>
     </row>
     <row r="36" spans="1:9" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="58"/>
-      <c r="D36" s="61" t="s">
+      <c r="D36" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="61"/>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
     </row>
     <row r="37" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="59"/>
@@ -1376,6 +2329,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H30:I30"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
@@ -1390,12 +2349,6 @@
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="E5:E6"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1418,17 +2371,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="76" t="s">
+      <c r="C1" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="72" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="98" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="72"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="35"/>
@@ -1436,20 +2389,20 @@
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="103"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="77"/>
-      <c r="G3" s="75">
+      <c r="B3" s="107"/>
+      <c r="G3" s="105">
         <f ca="1">TODAY()</f>
-        <v>44125</v>
-      </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
+        <v>44127</v>
+      </c>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28"/>
@@ -1457,86 +2410,86 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="H4" s="108"/>
+      <c r="I4" s="108"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="108"/>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="108"/>
-      <c r="G5" s="78" t="s">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="G5" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="108"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="104"/>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="G6" s="78" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="G6" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
+      <c r="H6" s="108"/>
+      <c r="I6" s="108"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="105"/>
-      <c r="B7" s="105"/>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="105"/>
-      <c r="G7" s="78" t="s">
+      <c r="A7" s="84"/>
+      <c r="B7" s="84"/>
+      <c r="C7" s="84"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="G7" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="108"/>
     </row>
     <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="106"/>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="78" t="s">
+      <c r="G8" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="108"/>
     </row>
     <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="109"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="109"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
       <c r="E9" s="3"/>
-      <c r="G9" s="99" t="s">
+      <c r="G9" s="62" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="100"/>
-      <c r="I9" s="100"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="63"/>
     </row>
     <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
@@ -1545,11 +2498,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="99" t="s">
+      <c r="G11" s="62" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="100"/>
-      <c r="I11" s="100"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="63"/>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
@@ -1558,11 +2511,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="101" t="s">
+      <c r="G12" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
@@ -1571,25 +2524,25 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="95" t="s">
+      <c r="G13" s="61" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="97"/>
-      <c r="G14" s="98" t="s">
+      <c r="C14" s="88"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="98"/>
-      <c r="I14" s="94"/>
+      <c r="H14" s="89"/>
+      <c r="I14" s="60"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
@@ -1603,12 +2556,12 @@
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="92"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
       <c r="E16" s="34" t="s">
         <v>1</v>
       </c>
@@ -1626,10 +2579,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="89"/>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="104"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -1637,10 +2590,10 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="87"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="93"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="87"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -1648,10 +2601,10 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="87"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="93"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="86"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="87"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -1659,10 +2612,10 @@
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="87"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="93"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="86"/>
+      <c r="C20" s="86"/>
+      <c r="D20" s="87"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
@@ -1670,10 +2623,10 @@
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="87"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="93"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -1681,10 +2634,10 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="87"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="93"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="87"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
@@ -1692,10 +2645,10 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="87"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="93"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="87"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -1703,10 +2656,10 @@
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="87"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="93"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="87"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -1714,10 +2667,10 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="87"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="93"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="87"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -1725,10 +2678,10 @@
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="87"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="93"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="87"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -1736,10 +2689,10 @@
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="87"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="93"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -1747,10 +2700,10 @@
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="93"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="87"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -1758,10 +2711,10 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="87"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="93"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -1769,10 +2722,10 @@
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="87"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="93"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="87"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
@@ -1780,10 +2733,10 @@
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="87"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="93"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="87"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -1791,10 +2744,10 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="93"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -1802,10 +2755,10 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="87"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="93"/>
+      <c r="A33" s="85"/>
+      <c r="B33" s="86"/>
+      <c r="C33" s="86"/>
+      <c r="D33" s="87"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
@@ -1813,10 +2766,10 @@
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="87"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="93"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="86"/>
+      <c r="D34" s="87"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -1824,10 +2777,10 @@
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="87"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="88"/>
-      <c r="D35" s="93"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="87"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -1835,10 +2788,10 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="80"/>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
+      <c r="A36" s="90"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="91"/>
+      <c r="D36" s="91"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
@@ -1852,10 +2805,10 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="82" t="s">
+      <c r="E37" s="92" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="83"/>
+      <c r="F37" s="93"/>
       <c r="G37" s="9" t="s">
         <v>8</v>
       </c>
@@ -1866,12 +2819,12 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="84"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="79"/>
+      <c r="A38" s="94"/>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="94"/>
+      <c r="F38" s="95"/>
       <c r="G38" s="10" t="s">
         <v>9</v>
       </c>
@@ -1882,12 +2835,12 @@
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="21.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="85"/>
-      <c r="B39" s="86"/>
-      <c r="C39" s="86"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="86"/>
+      <c r="A39" s="96"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="97"/>
+      <c r="D39" s="97"/>
+      <c r="E39" s="96"/>
+      <c r="F39" s="97"/>
       <c r="G39" s="11" t="s">
         <v>10</v>
       </c>
@@ -1907,18 +2860,17 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="E38:F39"/>
@@ -1934,17 +2886,18 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/請求書.xlsx
+++ b/webroot/エクセル原本/請求書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FBFE713-EB26-48B0-9E05-652143974753}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917A3E59-7C7A-4B8B-9991-B4C4A23A1260}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" activeTab="1" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4000" xr2:uid="{91928D8F-F09B-4063-A20E-DBA3A651B376}"/>
   </bookViews>
   <sheets>
     <sheet name="合計表" sheetId="2" r:id="rId1"/>
@@ -615,7 +615,7 @@
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1192,7 +1192,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,78 +1301,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1406,41 +1334,74 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1448,77 +1409,104 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="14" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1836,505 +1824,499 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0B5F335-B7C1-4B9F-A0E8-D46E819B6326}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9" style="39" customWidth="1"/>
-    <col min="2" max="5" width="8.58203125" style="39"/>
-    <col min="6" max="7" width="10.4140625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="4.5" style="39" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" style="39" customWidth="1"/>
-    <col min="10" max="16384" width="8.58203125" style="39"/>
+    <col min="1" max="1" width="9" style="80" customWidth="1"/>
+    <col min="2" max="5" width="8.58203125" style="80"/>
+    <col min="6" max="7" width="10.4140625" style="80" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="80" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="80" customWidth="1"/>
+    <col min="10" max="16384" width="8.58203125" style="80"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="36" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="73" t="s">
+    <row r="1" spans="1:9" s="73" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-    </row>
-    <row r="2" spans="1:9" s="38" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="G1" s="75"/>
+      <c r="H1" s="75"/>
+      <c r="I1" s="75"/>
+    </row>
+    <row r="2" spans="1:9" s="77" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="76"/>
       <c r="B2" s="76"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
     </row>
     <row r="3" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="40"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="77" t="s">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="41"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="82"/>
     </row>
     <row r="5" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="42" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="41"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="82"/>
     </row>
     <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="82"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="82"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="42" t="s">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="41"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="82"/>
     </row>
     <row r="7" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="42" t="s">
+      <c r="A7" s="86"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="41"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="82"/>
     </row>
     <row r="8" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="44"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="42" t="s">
+      <c r="A8" s="87"/>
+      <c r="B8" s="87"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="41"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="82"/>
     </row>
     <row r="9" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="47"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="88"/>
+      <c r="H9" s="89"/>
     </row>
     <row r="10" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="48" t="s">
+      <c r="A10" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="49"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="88"/>
+      <c r="G10" s="88"/>
+      <c r="H10" s="81"/>
     </row>
     <row r="11" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="50" t="s">
+      <c r="C11" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="50" t="s">
+      <c r="F11" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="71" t="s">
+      <c r="H11" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="I11" s="72"/>
+      <c r="I11" s="93"/>
     </row>
     <row r="12" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I12" s="53"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="89"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
     </row>
     <row r="14" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="97"/>
     </row>
     <row r="15" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="1:9" s="57" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="58"/>
-      <c r="D16" s="78" t="s">
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+    </row>
+    <row r="16" spans="1:9" s="99" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="100"/>
+      <c r="D16" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-    </row>
-    <row r="17" spans="1:9" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="58"/>
-      <c r="D17" s="79" t="s">
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="101"/>
+      <c r="H16" s="101"/>
+      <c r="I16" s="101"/>
+    </row>
+    <row r="17" spans="1:9" s="99" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="100"/>
+      <c r="D17" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="102"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="102"/>
     </row>
     <row r="18" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="A18" s="103"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="103"/>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="80" t="s">
+      <c r="A20" s="104" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="1:9" s="38" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="104"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="104"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="104"/>
+    </row>
+    <row r="21" spans="1:9" s="77" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="76">
         <f>A2</f>
         <v>0</v>
       </c>
       <c r="B21" s="76"/>
-      <c r="F21" s="74">
+      <c r="F21" s="78">
         <f>F2</f>
         <v>0</v>
       </c>
-      <c r="G21" s="74"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="74"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="78"/>
     </row>
     <row r="22" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="75">
+      <c r="A22" s="79">
         <f>A3</f>
         <v>0</v>
       </c>
-      <c r="B22" s="75"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
+      <c r="B22" s="79"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="40"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="77" t="s">
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="41"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="82"/>
     </row>
     <row r="24" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="81">
+      <c r="A24" s="83">
         <f>A5</f>
         <v>0</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81">
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83">
         <f>E5</f>
         <v>0</v>
       </c>
-      <c r="F24" s="42" t="s">
+      <c r="F24" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="41"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="82"/>
     </row>
     <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="82"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="42" t="s">
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="41"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="82"/>
     </row>
     <row r="26" spans="1:9" ht="14" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="43"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="42" t="s">
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="41"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="82"/>
     </row>
     <row r="27" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="42" t="s">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="41"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="82"/>
     </row>
     <row r="28" spans="1:9" ht="11.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="44"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="46"/>
-      <c r="H28" s="47"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="89"/>
     </row>
     <row r="29" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="90" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="43"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="49"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="88"/>
+      <c r="G29" s="88"/>
+      <c r="H29" s="81"/>
     </row>
     <row r="30" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="91" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="50" t="s">
+      <c r="C30" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="D30" s="50" t="s">
+      <c r="D30" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="50" t="s">
+      <c r="F30" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="71" t="s">
+      <c r="H30" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="I30" s="72"/>
+      <c r="I30" s="93"/>
     </row>
     <row r="31" spans="1:9" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="51">
+      <c r="A31" s="94">
         <f t="shared" ref="A31:G31" si="0">A12</f>
         <v>0</v>
       </c>
-      <c r="B31" s="51">
+      <c r="B31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="C31" s="51">
+      <c r="C31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D31" s="51">
+      <c r="D31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E31" s="51">
+      <c r="E31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="94">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="52" t="s">
+      <c r="H31" s="95" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="53">
+      <c r="I31" s="96">
         <f>I12</f>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="10.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="A32" s="89"/>
+      <c r="B32" s="89"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="89"/>
     </row>
     <row r="33" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="97" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="97"/>
     </row>
     <row r="34" spans="1:9" ht="12.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="56" t="s">
+      <c r="A34" s="98" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="56"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="56"/>
-      <c r="H34" s="56"/>
-      <c r="I34" s="56"/>
-    </row>
-    <row r="35" spans="1:9" s="57" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C35" s="58"/>
-      <c r="D35" s="78" t="s">
+      <c r="B34" s="98"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
+      <c r="H34" s="98"/>
+      <c r="I34" s="98"/>
+    </row>
+    <row r="35" spans="1:9" s="99" customFormat="1" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C35" s="100"/>
+      <c r="D35" s="101" t="s">
         <v>36</v>
       </c>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
-      <c r="H35" s="78"/>
-      <c r="I35" s="78"/>
-    </row>
-    <row r="36" spans="1:9" s="57" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C36" s="58"/>
-      <c r="D36" s="79" t="s">
+      <c r="E35" s="101"/>
+      <c r="F35" s="101"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+    </row>
+    <row r="36" spans="1:9" s="99" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C36" s="100"/>
+      <c r="D36" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
+      <c r="E36" s="102"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="102"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="102"/>
     </row>
     <row r="37" spans="1:9" ht="7.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="59"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
+      <c r="A37" s="103"/>
+      <c r="B37" s="103"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="A24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H30:I30"/>
     <mergeCell ref="H11:I11"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="F2:I2"/>
@@ -2349,6 +2331,12 @@
     <mergeCell ref="A20:I20"/>
     <mergeCell ref="A5:D6"/>
     <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H30:I30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.35433070866141736" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -2360,7 +2348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36832780-D28D-4869-86A9-A3C5F85D10D5}">
   <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="70" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
       <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
@@ -2371,17 +2359,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C1" s="106" t="s">
+      <c r="C1" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="98" t="s">
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="98"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" ht="7" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="35"/>
@@ -2389,20 +2377,20 @@
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
     </row>
     <row r="3" spans="1:9" s="12" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="107" t="s">
+      <c r="A3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="107"/>
-      <c r="G3" s="105">
+      <c r="B3" s="56"/>
+      <c r="G3" s="54">
         <f ca="1">TODAY()</f>
-        <v>44127</v>
-      </c>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
+        <v>44140</v>
+      </c>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
     </row>
     <row r="4" spans="1:9" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="28"/>
@@ -2410,86 +2398,86 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="108"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
     </row>
     <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="69"/>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="G5" s="108" t="s">
+      <c r="A5" s="45"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="G5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="108"/>
-      <c r="I5" s="108"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
     </row>
     <row r="6" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="G6" s="108" t="s">
+      <c r="A6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="G6" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="H6" s="108"/>
-      <c r="I6" s="108"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="84"/>
-      <c r="B7" s="84"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="G7" s="108" t="s">
+      <c r="A7" s="71"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="G7" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="108"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
     </row>
     <row r="8" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="3"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="108" t="s">
+      <c r="G8" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="108"/>
-      <c r="I8" s="108"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
     </row>
     <row r="9" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="70"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
       <c r="E9" s="3"/>
-      <c r="G9" s="62" t="s">
+      <c r="G9" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="64" t="s">
+      <c r="G10" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1"/>
@@ -2498,11 +2486,11 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="62" t="s">
+      <c r="G11" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1"/>
@@ -2511,11 +2499,11 @@
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="64" t="s">
+      <c r="G12" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="65"/>
-      <c r="I12" s="65"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
     </row>
     <row r="13" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1"/>
@@ -2524,25 +2512,25 @@
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="61" t="s">
+      <c r="G13" s="37" t="s">
         <v>47</v>
       </c>
       <c r="H13" s="32"/>
       <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="88"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="89" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="H14" s="89"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="36"/>
     </row>
     <row r="15" spans="1:9" ht="13" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="1"/>
@@ -2556,12 +2544,12 @@
       <c r="I15" s="33"/>
     </row>
     <row r="16" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A16" s="99" t="s">
+      <c r="A16" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="34" t="s">
         <v>1</v>
       </c>
@@ -2579,10 +2567,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
-      <c r="C17" s="103"/>
-      <c r="D17" s="104"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="52"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="14"/>
@@ -2590,10 +2578,10 @@
       <c r="I17" s="16"/>
     </row>
     <row r="18" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="85"/>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="87"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="66"/>
       <c r="E18" s="17"/>
       <c r="F18" s="17"/>
       <c r="G18" s="18"/>
@@ -2601,10 +2589,10 @@
       <c r="I18" s="20"/>
     </row>
     <row r="19" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="85"/>
-      <c r="B19" s="86"/>
-      <c r="C19" s="86"/>
-      <c r="D19" s="87"/>
+      <c r="A19" s="64"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="18"/>
@@ -2612,10 +2600,10 @@
       <c r="I19" s="20"/>
     </row>
     <row r="20" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="85"/>
-      <c r="B20" s="86"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="87"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="66"/>
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="18"/>
@@ -2623,10 +2611,10 @@
       <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="85"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
+      <c r="A21" s="64"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="66"/>
       <c r="E21" s="17"/>
       <c r="F21" s="17"/>
       <c r="G21" s="18"/>
@@ -2634,10 +2622,10 @@
       <c r="I21" s="20"/>
     </row>
     <row r="22" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="85"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="87"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="66"/>
       <c r="E22" s="17"/>
       <c r="F22" s="17"/>
       <c r="G22" s="18"/>
@@ -2645,10 +2633,10 @@
       <c r="I22" s="20"/>
     </row>
     <row r="23" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="85"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="87"/>
+      <c r="A23" s="64"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="66"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="18"/>
@@ -2656,10 +2644,10 @@
       <c r="I23" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="85"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="87"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="18"/>
@@ -2667,10 +2655,10 @@
       <c r="I24" s="20"/>
     </row>
     <row r="25" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="85"/>
-      <c r="B25" s="86"/>
-      <c r="C25" s="86"/>
-      <c r="D25" s="87"/>
+      <c r="A25" s="64"/>
+      <c r="B25" s="65"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="66"/>
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="18"/>
@@ -2678,10 +2666,10 @@
       <c r="I25" s="20"/>
     </row>
     <row r="26" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="85"/>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="87"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="18"/>
@@ -2689,10 +2677,10 @@
       <c r="I26" s="20"/>
     </row>
     <row r="27" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="85"/>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="A27" s="64"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="66"/>
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="18"/>
@@ -2700,10 +2688,10 @@
       <c r="I27" s="20"/>
     </row>
     <row r="28" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="85"/>
-      <c r="B28" s="86"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="87"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="66"/>
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="18"/>
@@ -2711,10 +2699,10 @@
       <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="85"/>
-      <c r="B29" s="86"/>
-      <c r="C29" s="86"/>
-      <c r="D29" s="87"/>
+      <c r="A29" s="64"/>
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="18"/>
@@ -2722,10 +2710,10 @@
       <c r="I29" s="20"/>
     </row>
     <row r="30" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="85"/>
-      <c r="B30" s="86"/>
-      <c r="C30" s="86"/>
-      <c r="D30" s="87"/>
+      <c r="A30" s="64"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="18"/>
@@ -2733,10 +2721,10 @@
       <c r="I30" s="20"/>
     </row>
     <row r="31" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="85"/>
-      <c r="B31" s="86"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="87"/>
+      <c r="A31" s="64"/>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="66"/>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="18"/>
@@ -2744,10 +2732,10 @@
       <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="85"/>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
+      <c r="A32" s="64"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="66"/>
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="18"/>
@@ -2755,10 +2743,10 @@
       <c r="I32" s="20"/>
     </row>
     <row r="33" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="85"/>
-      <c r="B33" s="86"/>
-      <c r="C33" s="86"/>
-      <c r="D33" s="87"/>
+      <c r="A33" s="64"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="66"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="22"/>
@@ -2766,10 +2754,10 @@
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="85"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="86"/>
-      <c r="D34" s="87"/>
+      <c r="A34" s="64"/>
+      <c r="B34" s="65"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="18"/>
@@ -2777,10 +2765,10 @@
       <c r="I34" s="20"/>
     </row>
     <row r="35" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="85"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="87"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="66"/>
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="18"/>
@@ -2788,10 +2776,10 @@
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="90"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="91"/>
-      <c r="D36" s="91"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="69"/>
+      <c r="D36" s="69"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="22"/>
@@ -2805,10 +2793,10 @@
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
-      <c r="E37" s="92" t="s">
+      <c r="E37" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="F37" s="93"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="9" t="s">
         <v>8</v>
       </c>
@@ -2819,12 +2807,12 @@
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="21.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="94"/>
-      <c r="B38" s="95"/>
-      <c r="C38" s="95"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="94"/>
-      <c r="F38" s="95"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="10" t="s">
         <v>9</v>
       </c>
@@ -2835,12 +2823,12 @@
       <c r="I38" s="26"/>
     </row>
     <row r="39" spans="1:9" ht="21.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="96"/>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="96"/>
-      <c r="F39" s="97"/>
+      <c r="A39" s="62"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="63"/>
       <c r="G39" s="11" t="s">
         <v>10</v>
       </c>
@@ -2860,17 +2848,16 @@
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="G3:I3"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="E37:F37"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="E38:F39"/>
@@ -2886,18 +2873,19 @@
     <mergeCell ref="A26:D26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="G3:I3"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G8:I8"/>
     <mergeCell ref="G14:H14"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/webroot/エクセル原本/請求書.xlsx
+++ b/webroot/エクセル原本/請求書.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
   <si>
     <t>　　</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>　　             　　　　振込銀行：きのくに信用金庫　和歌山支店　　口座番号：【普通 8215664 】　口座名義： 有限会社　大橋設備</t>
-  </si>
-  <si>
-    <t>合  計  請  求  書（控）</t>
   </si>
   <si>
     <t>請求明細書</t>
@@ -173,6 +170,61 @@
     <rPh sb="6" eb="7">
       <t>ヒカエ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合  計  請  求  書 （控）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録番号：T00000000000</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>合計</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伝票番号</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>税込金額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録番号：T0000000000000</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">消費税 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐ明朝"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
+      <t>8％</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -188,7 +240,7 @@
     <numFmt numFmtId="180" formatCode="#,##0_ "/>
     <numFmt numFmtId="181" formatCode="&quot;¥&quot;#,##0_);[Red]\(&quot;¥&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -301,18 +353,24 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐ明朝"/>
       <family val="1"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐ明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -324,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="89">
     <border>
       <left/>
       <right/>
@@ -1030,12 +1088,414 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,9 +1577,6 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1159,30 +1616,18 @@
     <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1256,301 +1701,382 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1853,4 +2379,1247 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24:J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="6.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="7.875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.5" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.375" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D1" s="146" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="143"/>
+      <c r="K1" s="143"/>
+      <c r="O1" s="100" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+    </row>
+    <row r="2" spans="1:22" ht="6.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="144"/>
+      <c r="B3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="145"/>
+      <c r="K3" s="145"/>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="145"/>
+      <c r="V3" s="145"/>
+    </row>
+    <row r="4" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
+      <c r="K4" s="138"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="S4" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="T4" s="138"/>
+      <c r="U4" s="138"/>
+      <c r="V4" s="138"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="H5" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="138"/>
+      <c r="J5" s="138"/>
+      <c r="K5" s="138"/>
+      <c r="L5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="S5" s="138" t="s">
+        <v>17</v>
+      </c>
+      <c r="T5" s="138"/>
+      <c r="U5" s="138"/>
+      <c r="V5" s="138"/>
+    </row>
+    <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="139"/>
+      <c r="B6" s="139"/>
+      <c r="C6" s="139"/>
+      <c r="D6" s="139"/>
+      <c r="E6" s="139"/>
+      <c r="F6" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="138"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="139"/>
+      <c r="M6" s="139"/>
+      <c r="N6" s="139"/>
+      <c r="O6" s="139"/>
+      <c r="P6" s="139"/>
+      <c r="Q6" s="140" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="138" t="s">
+        <v>18</v>
+      </c>
+      <c r="T6" s="138"/>
+      <c r="U6" s="138"/>
+      <c r="V6" s="138"/>
+    </row>
+    <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="142"/>
+      <c r="B7" s="142"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="141"/>
+      <c r="H7" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="138"/>
+      <c r="J7" s="138"/>
+      <c r="K7" s="138"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
+      <c r="N7" s="142"/>
+      <c r="O7" s="142"/>
+      <c r="P7" s="142"/>
+      <c r="Q7" s="141"/>
+      <c r="S7" s="138" t="s">
+        <v>19</v>
+      </c>
+      <c r="T7" s="138"/>
+      <c r="U7" s="138"/>
+      <c r="V7" s="138"/>
+    </row>
+    <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="129"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="130" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="130"/>
+      <c r="L8" s="129" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="129"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="129"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="130" t="s">
+        <v>44</v>
+      </c>
+      <c r="T8" s="130"/>
+      <c r="U8" s="130"/>
+      <c r="V8" s="130"/>
+    </row>
+    <row r="9" spans="1:22" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="144"/>
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="H9" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="186"/>
+      <c r="J9" s="186"/>
+      <c r="K9" s="186"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="186" t="s">
+        <v>52</v>
+      </c>
+      <c r="T9" s="186"/>
+      <c r="U9" s="186"/>
+      <c r="V9" s="186"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="8"/>
+      <c r="H10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="S10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+    </row>
+    <row r="11" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="18"/>
+      <c r="S11" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="T11" s="12"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+    </row>
+    <row r="12" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="11"/>
+      <c r="V12" s="11"/>
+    </row>
+    <row r="13" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="T13" s="12"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+    </row>
+    <row r="14" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="14"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+    </row>
+    <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C15" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="132"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="133"/>
+      <c r="H15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="44"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="16"/>
+      <c r="N15" s="131" t="s">
+        <v>43</v>
+      </c>
+      <c r="O15" s="132"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="133"/>
+      <c r="R15" s="133"/>
+      <c r="S15" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15" s="44"/>
+      <c r="U15" s="43"/>
+      <c r="V15" s="16"/>
+    </row>
+    <row r="16" spans="1:22" ht="12.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="18"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="45"/>
+    </row>
+    <row r="17" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="135"/>
+      <c r="C17" s="135"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="136"/>
+      <c r="F17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="I17" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="136"/>
+      <c r="K17" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="L17" s="134" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
+      <c r="P17" s="136"/>
+      <c r="Q17" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="R17" s="74" t="s">
+        <v>39</v>
+      </c>
+      <c r="S17" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="T17" s="137" t="s">
+        <v>41</v>
+      </c>
+      <c r="U17" s="136"/>
+      <c r="V17" s="49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="124"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="53"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="124"/>
+      <c r="M18" s="125"/>
+      <c r="N18" s="125"/>
+      <c r="O18" s="125"/>
+      <c r="P18" s="126"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
+      <c r="S18" s="53"/>
+      <c r="T18" s="127"/>
+      <c r="U18" s="128"/>
+      <c r="V18" s="51"/>
+    </row>
+    <row r="19" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="101"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="104"/>
+      <c r="J19" s="105"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="101"/>
+      <c r="M19" s="102"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="104"/>
+      <c r="U19" s="105"/>
+      <c r="V19" s="54"/>
+    </row>
+    <row r="20" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="101"/>
+      <c r="B20" s="102"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="105"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="101"/>
+      <c r="M20" s="102"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="102"/>
+      <c r="P20" s="103"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="104"/>
+      <c r="U20" s="105"/>
+      <c r="V20" s="54"/>
+    </row>
+    <row r="21" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="101"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="102"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="105"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="102"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="102"/>
+      <c r="P21" s="103"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="104"/>
+      <c r="U21" s="105"/>
+      <c r="V21" s="54"/>
+    </row>
+    <row r="22" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="101"/>
+      <c r="B22" s="102"/>
+      <c r="C22" s="102"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="104"/>
+      <c r="J22" s="105"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="56"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="105"/>
+      <c r="V22" s="54"/>
+    </row>
+    <row r="23" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="101"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="102"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="101"/>
+      <c r="M23" s="102"/>
+      <c r="N23" s="102"/>
+      <c r="O23" s="102"/>
+      <c r="P23" s="103"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="104"/>
+      <c r="U23" s="105"/>
+      <c r="V23" s="54"/>
+    </row>
+    <row r="24" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
+      <c r="N24" s="102"/>
+      <c r="O24" s="102"/>
+      <c r="P24" s="103"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="54"/>
+    </row>
+    <row r="25" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="101"/>
+      <c r="B25" s="102"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="105"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="101"/>
+      <c r="M25" s="102"/>
+      <c r="N25" s="102"/>
+      <c r="O25" s="102"/>
+      <c r="P25" s="103"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="104"/>
+      <c r="U25" s="105"/>
+      <c r="V25" s="54"/>
+    </row>
+    <row r="26" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="101"/>
+      <c r="B26" s="102"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="104"/>
+      <c r="J26" s="105"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="56"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="105"/>
+      <c r="V26" s="54"/>
+    </row>
+    <row r="27" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="101"/>
+      <c r="B27" s="102"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="104"/>
+      <c r="J27" s="105"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="102"/>
+      <c r="N27" s="102"/>
+      <c r="O27" s="102"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="56"/>
+      <c r="T27" s="104"/>
+      <c r="U27" s="105"/>
+      <c r="V27" s="54"/>
+    </row>
+    <row r="28" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="101"/>
+      <c r="B28" s="102"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="104"/>
+      <c r="J28" s="105"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="102"/>
+      <c r="N28" s="102"/>
+      <c r="O28" s="102"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="56"/>
+      <c r="T28" s="104"/>
+      <c r="U28" s="105"/>
+      <c r="V28" s="54"/>
+    </row>
+    <row r="29" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="101"/>
+      <c r="B29" s="102"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="104"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="57"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="102"/>
+      <c r="N29" s="102"/>
+      <c r="O29" s="102"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="105"/>
+      <c r="V29" s="57"/>
+    </row>
+    <row r="30" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="101"/>
+      <c r="B30" s="102"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="120"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="102"/>
+      <c r="N30" s="102"/>
+      <c r="O30" s="102"/>
+      <c r="P30" s="120"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="119"/>
+      <c r="V30" s="58"/>
+    </row>
+    <row r="31" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="101"/>
+      <c r="B31" s="102"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="122"/>
+      <c r="J31" s="123"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="102"/>
+      <c r="N31" s="102"/>
+      <c r="O31" s="102"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="60"/>
+      <c r="T31" s="122"/>
+      <c r="U31" s="123"/>
+      <c r="V31" s="61"/>
+    </row>
+    <row r="32" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="101"/>
+      <c r="B32" s="102"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="104"/>
+      <c r="J32" s="105"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="102"/>
+      <c r="N32" s="102"/>
+      <c r="O32" s="102"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="104"/>
+      <c r="U32" s="105"/>
+      <c r="V32" s="54"/>
+    </row>
+    <row r="33" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="101"/>
+      <c r="B33" s="102"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="104"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="102"/>
+      <c r="N33" s="102"/>
+      <c r="O33" s="102"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="56"/>
+      <c r="T33" s="104"/>
+      <c r="U33" s="105"/>
+      <c r="V33" s="54"/>
+    </row>
+    <row r="34" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="101"/>
+      <c r="B34" s="102"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="102"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="102"/>
+      <c r="N34" s="102"/>
+      <c r="O34" s="102"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="105"/>
+      <c r="V34" s="54"/>
+    </row>
+    <row r="35" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="115"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="116"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="63"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="118"/>
+      <c r="J35" s="119"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="116"/>
+      <c r="N35" s="116"/>
+      <c r="O35" s="116"/>
+      <c r="P35" s="117"/>
+      <c r="Q35" s="63"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="118"/>
+      <c r="U35" s="119"/>
+      <c r="V35" s="64"/>
+    </row>
+    <row r="36" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="101"/>
+      <c r="B36" s="102"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="102"/>
+      <c r="E36" s="103"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="56"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="105"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="102"/>
+      <c r="N36" s="102"/>
+      <c r="O36" s="102"/>
+      <c r="P36" s="103"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="56"/>
+      <c r="T36" s="104"/>
+      <c r="U36" s="105"/>
+      <c r="V36" s="57"/>
+    </row>
+    <row r="37" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A37" s="106"/>
+      <c r="B37" s="107"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="108"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="109"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="73"/>
+    </row>
+    <row r="38" spans="1:22" ht="21.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A38" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="F38" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="112"/>
+      <c r="H38" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="113">
+        <f>SUM(I18:I37)</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="114"/>
+      <c r="K38" s="68"/>
+      <c r="L38" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="R38" s="112"/>
+      <c r="S38" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="T38" s="113">
+        <f>SUM(T18:T37)</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="114"/>
+      <c r="V38" s="68"/>
+    </row>
+    <row r="39" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="187"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="189"/>
+      <c r="F39" s="193"/>
+      <c r="G39" s="189"/>
+      <c r="H39" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="I39" s="104"/>
+      <c r="J39" s="105"/>
+      <c r="K39" s="195"/>
+      <c r="L39" s="187"/>
+      <c r="M39" s="188"/>
+      <c r="N39" s="188"/>
+      <c r="O39" s="188"/>
+      <c r="P39" s="189"/>
+      <c r="Q39" s="193"/>
+      <c r="R39" s="189"/>
+      <c r="S39" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="T39" s="104"/>
+      <c r="U39" s="105"/>
+      <c r="V39" s="195"/>
+    </row>
+    <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="187"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="193"/>
+      <c r="G40" s="189"/>
+      <c r="H40" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" s="96"/>
+      <c r="J40" s="97"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="188"/>
+      <c r="O40" s="188"/>
+      <c r="P40" s="189"/>
+      <c r="Q40" s="193"/>
+      <c r="R40" s="189"/>
+      <c r="S40" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="96"/>
+      <c r="U40" s="97"/>
+      <c r="V40" s="69"/>
+    </row>
+    <row r="41" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="190"/>
+      <c r="B41" s="191"/>
+      <c r="C41" s="191"/>
+      <c r="D41" s="191"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" s="98"/>
+      <c r="J41" s="99"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="190"/>
+      <c r="M41" s="191"/>
+      <c r="N41" s="191"/>
+      <c r="O41" s="191"/>
+      <c r="P41" s="192"/>
+      <c r="Q41" s="194"/>
+      <c r="R41" s="192"/>
+      <c r="S41" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="T41" s="98"/>
+      <c r="U41" s="99"/>
+      <c r="V41" s="70"/>
+    </row>
+    <row r="42" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="132">
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="A39:E41"/>
+    <mergeCell ref="F39:G41"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="L17:P17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="L7:P7"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="S9:V9"/>
+    <mergeCell ref="L21:P21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="L27:P27"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/webroot/エクセル原本/請求書.xlsx
+++ b/webroot/エクセル原本/請求書.xlsx
@@ -1,3 +1,24 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\CakePHPapp\webroot\エクセル原本\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDB42B79-2D91-4B74-A8DF-372511FA95E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="合計表" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="54">
@@ -1495,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="198">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1715,68 +1736,233 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="12" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="6" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1784,14 +1970,44 @@
     <xf numFmtId="180" fontId="6" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1802,11 +2018,23 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1817,50 +2045,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1871,212 +2081,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="84" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="85" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="18" fillId="0" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2381,12 +2408,1576 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V54"/>
+  <sheetViews>
+    <sheetView view="pageLayout" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29:P29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.875" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="22" customWidth="1"/>
+    <col min="2" max="2" width="6" style="22" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="22" customWidth="1"/>
+    <col min="4" max="4" width="8.75" style="22" customWidth="1"/>
+    <col min="5" max="5" width="9.75" style="22" customWidth="1"/>
+    <col min="6" max="6" width="6.75" style="22" customWidth="1"/>
+    <col min="7" max="7" width="2.375" style="22" customWidth="1"/>
+    <col min="8" max="8" width="10" style="22" customWidth="1"/>
+    <col min="9" max="9" width="9.875" style="22" customWidth="1"/>
+    <col min="10" max="10" width="8.875" style="22" customWidth="1"/>
+    <col min="11" max="11" width="4.375" style="22" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="22" customWidth="1"/>
+    <col min="13" max="13" width="7.125" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.25" style="22" customWidth="1"/>
+    <col min="15" max="15" width="8.75" style="22" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="22" customWidth="1"/>
+    <col min="17" max="17" width="7.25" style="22" customWidth="1"/>
+    <col min="18" max="18" width="1.375" style="22" customWidth="1"/>
+    <col min="19" max="19" width="10.375" style="22" customWidth="1"/>
+    <col min="20" max="20" width="9.625" style="22" customWidth="1"/>
+    <col min="21" max="21" width="8.75" style="22" customWidth="1"/>
+    <col min="22" max="22" width="4.375" style="22" customWidth="1"/>
+    <col min="23" max="16384" width="4.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" s="19" customFormat="1" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="127" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="127"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="S1" s="127" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" s="127"/>
+      <c r="U1" s="127"/>
+      <c r="V1" s="127"/>
+    </row>
+    <row r="2" spans="1:22" s="20" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="H2" s="134"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="134"/>
+      <c r="L2" s="128">
+        <f>A2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="128"/>
+      <c r="N2" s="128"/>
+      <c r="S2" s="129">
+        <f>H2</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="129"/>
+      <c r="U2" s="129"/>
+      <c r="V2" s="129"/>
+    </row>
+    <row r="3" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="132"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+      <c r="F3" s="132"/>
+      <c r="G3" s="21"/>
+      <c r="L3" s="130">
+        <f>A3</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="130"/>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="21"/>
+    </row>
+    <row r="4" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="133"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="133"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="131">
+        <f>A4</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="131"/>
+      <c r="N4" s="131"/>
+      <c r="O4" s="131"/>
+      <c r="P4" s="131"/>
+      <c r="Q4" s="131"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="24"/>
+    </row>
+    <row r="5" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="24"/>
+    </row>
+    <row r="6" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H6" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="120"/>
+      <c r="J6" s="120"/>
+      <c r="K6" s="24"/>
+      <c r="S6" s="120" t="s">
+        <v>35</v>
+      </c>
+      <c r="T6" s="120"/>
+      <c r="U6" s="120"/>
+      <c r="V6" s="24"/>
+    </row>
+    <row r="7" spans="1:22" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="M7" s="110">
+        <f>B7</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="110"/>
+      <c r="O7" s="110"/>
+      <c r="P7" s="110"/>
+      <c r="Q7" s="121" t="s">
+        <v>1</v>
+      </c>
+      <c r="R7" s="25"/>
+      <c r="S7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="24"/>
+    </row>
+    <row r="8" spans="1:22" ht="16.350000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="40"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="111">
+        <f>B8</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="111"/>
+      <c r="O8" s="111"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="122"/>
+      <c r="R8" s="25"/>
+      <c r="S8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="24"/>
+    </row>
+    <row r="9" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="24"/>
+    </row>
+    <row r="10" spans="1:22" ht="14.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="24"/>
+    </row>
+    <row r="11" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="H11" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="S11" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="24"/>
+    </row>
+    <row r="12" spans="1:22" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="19"/>
+      <c r="I12" s="26"/>
+      <c r="N12" s="19"/>
+      <c r="T12" s="26"/>
+    </row>
+    <row r="13" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="L13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="M13" s="20"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+    </row>
+    <row r="14" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="124"/>
+      <c r="C14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="126"/>
+      <c r="H14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="126"/>
+      <c r="L14" s="123" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="124"/>
+      <c r="N14" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q14" s="125" t="s">
+        <v>7</v>
+      </c>
+      <c r="R14" s="126"/>
+      <c r="S14" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="U14" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="V14" s="126"/>
+    </row>
+    <row r="15" spans="1:22" ht="26.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="116"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="118"/>
+      <c r="K15" s="119"/>
+      <c r="L15" s="116">
+        <f>A15</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="117"/>
+      <c r="N15" s="31">
+        <f>C15</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="31">
+        <f>D15</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="31">
+        <f>E15</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="116">
+        <f>F15</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="117"/>
+      <c r="S15" s="31">
+        <f>H15</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="31">
+        <f>I15</f>
+        <v>0</v>
+      </c>
+      <c r="U15" s="118">
+        <f>J15</f>
+        <v>0</v>
+      </c>
+      <c r="V15" s="119"/>
+    </row>
+    <row r="16" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="M17" s="32"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+    </row>
+    <row r="18" spans="1:22" ht="12.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+    </row>
+    <row r="19" spans="1:22" s="36" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+      <c r="N19" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="38"/>
+      <c r="S19" s="38"/>
+      <c r="T19" s="38"/>
+      <c r="U19" s="38"/>
+      <c r="V19" s="38"/>
+    </row>
+    <row r="20" spans="1:22" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="N20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+    </row>
+    <row r="21" spans="1:22" ht="5.85" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
+      <c r="N21" s="39"/>
+      <c r="O21" s="39"/>
+      <c r="P21" s="39"/>
+      <c r="Q21" s="39"/>
+      <c r="R21" s="39"/>
+      <c r="S21" s="39"/>
+      <c r="T21" s="39"/>
+      <c r="U21" s="39"/>
+      <c r="V21" s="39"/>
+    </row>
+    <row r="24" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="93"/>
+      <c r="D24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="E24" s="94"/>
+      <c r="F24" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="96"/>
+      <c r="H24" s="93"/>
+      <c r="I24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="J24" s="94"/>
+      <c r="M24" s="92" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24" s="93"/>
+      <c r="O24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="P24" s="94"/>
+      <c r="Q24" s="95" t="s">
+        <v>50</v>
+      </c>
+      <c r="R24" s="96"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="92" t="s">
+        <v>51</v>
+      </c>
+      <c r="U24" s="94"/>
+    </row>
+    <row r="25" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B25" s="104"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="108"/>
+      <c r="G25" s="109"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="M25" s="104">
+        <f>B25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="105"/>
+      <c r="O25" s="106">
+        <f>D25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="112"/>
+      <c r="Q25" s="113">
+        <f>F25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="114"/>
+      <c r="S25" s="115"/>
+      <c r="T25" s="106">
+        <f>I25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="107"/>
+    </row>
+    <row r="26" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="82"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="88"/>
+      <c r="M26" s="82">
+        <f>B26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="83"/>
+      <c r="O26" s="84">
+        <f>D26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="85"/>
+      <c r="Q26" s="82">
+        <f>F26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="86"/>
+      <c r="S26" s="87"/>
+      <c r="T26" s="84">
+        <f>I26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="88"/>
+    </row>
+    <row r="27" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="86"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="88"/>
+      <c r="M27" s="82">
+        <f t="shared" ref="M27:M44" si="0">B27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="83"/>
+      <c r="O27" s="84">
+        <f t="shared" ref="O27:O44" si="1">D27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="85"/>
+      <c r="Q27" s="82">
+        <f t="shared" ref="Q27:Q44" si="2">F27</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="86"/>
+      <c r="S27" s="87"/>
+      <c r="T27" s="84">
+        <f t="shared" ref="T27:T44" si="3">I27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="88"/>
+    </row>
+    <row r="28" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B28" s="82"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="88"/>
+      <c r="M28" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N28" s="83"/>
+      <c r="O28" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="85"/>
+      <c r="Q28" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="86"/>
+      <c r="S28" s="87"/>
+      <c r="T28" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="88"/>
+    </row>
+    <row r="29" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B29" s="82"/>
+      <c r="C29" s="83"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="88"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="83"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="88"/>
+      <c r="M29" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N29" s="83"/>
+      <c r="O29" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="85"/>
+      <c r="Q29" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="86"/>
+      <c r="S29" s="87"/>
+      <c r="T29" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="88"/>
+    </row>
+    <row r="30" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="82"/>
+      <c r="C30" s="83"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="88"/>
+      <c r="M30" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="83"/>
+      <c r="O30" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="85"/>
+      <c r="Q30" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="86"/>
+      <c r="S30" s="87"/>
+      <c r="T30" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="88"/>
+    </row>
+    <row r="31" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B31" s="82"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="88"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="86"/>
+      <c r="H31" s="83"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="88"/>
+      <c r="M31" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N31" s="83"/>
+      <c r="O31" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="86"/>
+      <c r="S31" s="87"/>
+      <c r="T31" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="88"/>
+    </row>
+    <row r="32" spans="1:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B32" s="82"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="88"/>
+      <c r="M32" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N32" s="83"/>
+      <c r="O32" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="85"/>
+      <c r="Q32" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="86"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U32" s="88"/>
+    </row>
+    <row r="33" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B33" s="82"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="88"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="86"/>
+      <c r="H33" s="83"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="88"/>
+      <c r="M33" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N33" s="83"/>
+      <c r="O33" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="86"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="88"/>
+    </row>
+    <row r="34" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="82"/>
+      <c r="C34" s="83"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="88"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="88"/>
+      <c r="M34" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="83"/>
+      <c r="O34" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="85"/>
+      <c r="Q34" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="86"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="88"/>
+    </row>
+    <row r="35" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="82"/>
+      <c r="C35" s="83"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="88"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="86"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="88"/>
+      <c r="M35" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N35" s="83"/>
+      <c r="O35" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="85"/>
+      <c r="Q35" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="86"/>
+      <c r="S35" s="87"/>
+      <c r="T35" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="88"/>
+    </row>
+    <row r="36" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B36" s="82"/>
+      <c r="C36" s="83"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="88"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="86"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="88"/>
+      <c r="M36" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N36" s="83"/>
+      <c r="O36" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="85"/>
+      <c r="Q36" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="86"/>
+      <c r="S36" s="87"/>
+      <c r="T36" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="88"/>
+    </row>
+    <row r="37" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="88"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="86"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="88"/>
+      <c r="M37" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N37" s="83"/>
+      <c r="O37" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="85"/>
+      <c r="Q37" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="86"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="88"/>
+    </row>
+    <row r="38" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B38" s="82"/>
+      <c r="C38" s="83"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="88"/>
+      <c r="M38" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="83"/>
+      <c r="O38" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="85"/>
+      <c r="Q38" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="86"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="88"/>
+    </row>
+    <row r="39" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B39" s="82"/>
+      <c r="C39" s="83"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="88"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="83"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="88"/>
+      <c r="M39" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N39" s="83"/>
+      <c r="O39" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R39" s="86"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="88"/>
+    </row>
+    <row r="40" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B40" s="82"/>
+      <c r="C40" s="83"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="103"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="88"/>
+      <c r="M40" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N40" s="83"/>
+      <c r="O40" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P40" s="85"/>
+      <c r="Q40" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R40" s="86"/>
+      <c r="S40" s="87"/>
+      <c r="T40" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U40" s="88"/>
+    </row>
+    <row r="41" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="82"/>
+      <c r="C41" s="83"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="88"/>
+      <c r="F41" s="103"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="88"/>
+      <c r="M41" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N41" s="83"/>
+      <c r="O41" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P41" s="85"/>
+      <c r="Q41" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R41" s="86"/>
+      <c r="S41" s="87"/>
+      <c r="T41" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U41" s="88"/>
+    </row>
+    <row r="42" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B42" s="82"/>
+      <c r="C42" s="83"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="103"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="83"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="88"/>
+      <c r="M42" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N42" s="83"/>
+      <c r="O42" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="85"/>
+      <c r="Q42" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R42" s="86"/>
+      <c r="S42" s="87"/>
+      <c r="T42" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U42" s="88"/>
+    </row>
+    <row r="43" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B43" s="82"/>
+      <c r="C43" s="83"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="83"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="88"/>
+      <c r="M43" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N43" s="83"/>
+      <c r="O43" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P43" s="85"/>
+      <c r="Q43" s="82">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R43" s="86"/>
+      <c r="S43" s="87"/>
+      <c r="T43" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U43" s="88"/>
+    </row>
+    <row r="44" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100"/>
+      <c r="F44" s="101"/>
+      <c r="G44" s="102"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="100"/>
+      <c r="M44" s="82">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N44" s="83"/>
+      <c r="O44" s="84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P44" s="85"/>
+      <c r="Q44" s="89">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R44" s="90"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="84">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="88"/>
+    </row>
+    <row r="45" spans="2:22" ht="19.7" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="78"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="81"/>
+      <c r="M45" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="N45" s="78"/>
+      <c r="O45" s="78"/>
+      <c r="P45" s="78"/>
+      <c r="Q45" s="79">
+        <f>F45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="80"/>
+      <c r="S45" s="80"/>
+      <c r="T45" s="80"/>
+      <c r="U45" s="81"/>
+      <c r="V45" s="1"/>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.4">
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+    </row>
+    <row r="49" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+    </row>
+    <row r="50" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+    </row>
+    <row r="51" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+    </row>
+    <row r="52" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+    </row>
+    <row r="53" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+    </row>
+    <row r="54" spans="14:22" x14ac:dyDescent="0.4">
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+      <c r="U54" s="1"/>
+      <c r="V54" s="1"/>
+    </row>
+  </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="201">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="B7:E8"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="L4:Q4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="M7:P7"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="I36:J36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="I40:J40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="B45:E45"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:S31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="Q32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:S38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="Q35:S35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:S36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:S41"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="Q39:S39"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="Q40:S40"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="M45:P45"/>
+    <mergeCell ref="Q45:U45"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:S43"/>
+    <mergeCell ref="T43:U43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="Q44:S44"/>
+    <mergeCell ref="T44:U44"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.35433070866142002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
+  <pageSetup paperSize="9" scale="98" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24:J24"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39:P41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.375" defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
@@ -2417,26 +4008,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D1" s="146" t="s">
+      <c r="D1" s="190" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="143"/>
-      <c r="K1" s="143"/>
-      <c r="O1" s="100" t="s">
+      <c r="J1" s="172"/>
+      <c r="K1" s="172"/>
+      <c r="O1" s="191" t="s">
         <v>46</v>
       </c>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
-      <c r="R1" s="100"/>
-      <c r="S1" s="100"/>
+      <c r="P1" s="191"/>
+      <c r="Q1" s="191"/>
+      <c r="R1" s="191"/>
+      <c r="S1" s="191"/>
       <c r="T1" s="2"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
+      <c r="U1" s="172"/>
+      <c r="V1" s="172"/>
     </row>
     <row r="2" spans="1:22" ht="6.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="D2" s="2"/>
@@ -2457,24 +4048,24 @@
       <c r="V2" s="3"/>
     </row>
     <row r="3" spans="1:22" s="5" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="144"/>
-      <c r="B3" s="144"/>
-      <c r="C3" s="144"/>
+      <c r="A3" s="143"/>
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="I3" s="46"/>
-      <c r="J3" s="145"/>
-      <c r="K3" s="145"/>
-      <c r="L3" s="144"/>
-      <c r="M3" s="144"/>
-      <c r="N3" s="144"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="143"/>
+      <c r="M3" s="143"/>
+      <c r="N3" s="143"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="T3" s="46"/>
-      <c r="U3" s="145"/>
-      <c r="V3" s="145"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
     </row>
     <row r="4" spans="1:22" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="41"/>
@@ -2483,24 +4074,24 @@
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="H4" s="138" t="s">
+      <c r="H4" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="138"/>
-      <c r="J4" s="138"/>
-      <c r="K4" s="138"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
       <c r="L4" s="41"/>
       <c r="M4" s="41"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
-      <c r="S4" s="138" t="s">
+      <c r="S4" s="173" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="138"/>
-      <c r="U4" s="138"/>
-      <c r="V4" s="138"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
     </row>
     <row r="5" spans="1:22" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
@@ -2511,12 +4102,12 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="138" t="s">
+      <c r="H5" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="138"/>
-      <c r="J5" s="138"/>
-      <c r="K5" s="138"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
       <c r="L5" s="4" t="s">
         <v>0</v>
       </c>
@@ -2525,126 +4116,126 @@
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
-      <c r="S5" s="138" t="s">
+      <c r="S5" s="173" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="138"/>
-      <c r="U5" s="138"/>
-      <c r="V5" s="138"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
     </row>
     <row r="6" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="139"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="140" t="s">
+      <c r="A6" s="183"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
+      <c r="D6" s="183"/>
+      <c r="E6" s="183"/>
+      <c r="F6" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="138" t="s">
+      <c r="H6" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="138"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="138"/>
-      <c r="L6" s="139"/>
-      <c r="M6" s="139"/>
-      <c r="N6" s="139"/>
-      <c r="O6" s="139"/>
-      <c r="P6" s="139"/>
-      <c r="Q6" s="140" t="s">
+      <c r="I6" s="173"/>
+      <c r="J6" s="173"/>
+      <c r="K6" s="173"/>
+      <c r="L6" s="183"/>
+      <c r="M6" s="183"/>
+      <c r="N6" s="183"/>
+      <c r="O6" s="183"/>
+      <c r="P6" s="183"/>
+      <c r="Q6" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="S6" s="138" t="s">
+      <c r="S6" s="173" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="138"/>
-      <c r="U6" s="138"/>
-      <c r="V6" s="138"/>
+      <c r="T6" s="173"/>
+      <c r="U6" s="173"/>
+      <c r="V6" s="173"/>
     </row>
     <row r="7" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="142"/>
-      <c r="B7" s="142"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="141"/>
-      <c r="H7" s="138" t="s">
+      <c r="A7" s="184"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="184"/>
+      <c r="E7" s="184"/>
+      <c r="F7" s="179"/>
+      <c r="H7" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="138"/>
-      <c r="J7" s="138"/>
-      <c r="K7" s="138"/>
-      <c r="L7" s="142"/>
-      <c r="M7" s="142"/>
-      <c r="N7" s="142"/>
-      <c r="O7" s="142"/>
-      <c r="P7" s="142"/>
-      <c r="Q7" s="141"/>
-      <c r="S7" s="138" t="s">
+      <c r="I7" s="173"/>
+      <c r="J7" s="173"/>
+      <c r="K7" s="173"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="184"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="179"/>
+      <c r="S7" s="173" t="s">
         <v>19</v>
       </c>
-      <c r="T7" s="138"/>
-      <c r="U7" s="138"/>
-      <c r="V7" s="138"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
     </row>
     <row r="8" spans="1:22" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
+      <c r="B8" s="146"/>
+      <c r="C8" s="146"/>
+      <c r="D8" s="146"/>
       <c r="E8" s="7"/>
       <c r="F8" s="8"/>
       <c r="G8" s="18"/>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="130"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="130"/>
-      <c r="L8" s="129" t="s">
+      <c r="I8" s="145"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="146" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="8"/>
       <c r="R8" s="18"/>
-      <c r="S8" s="130" t="s">
+      <c r="S8" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="T8" s="130"/>
-      <c r="U8" s="130"/>
-      <c r="V8" s="130"/>
+      <c r="T8" s="145"/>
+      <c r="U8" s="145"/>
+      <c r="V8" s="145"/>
     </row>
     <row r="9" spans="1:22" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="144"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
+      <c r="A9" s="143"/>
+      <c r="B9" s="143"/>
+      <c r="C9" s="143"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="H9" s="186" t="s">
+      <c r="H9" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="143"/>
+      <c r="M9" s="143"/>
+      <c r="N9" s="143"/>
       <c r="O9" s="4"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
-      <c r="S9" s="186" t="s">
+      <c r="S9" s="144" t="s">
         <v>52</v>
       </c>
-      <c r="T9" s="186"/>
-      <c r="U9" s="186"/>
-      <c r="V9" s="186"/>
+      <c r="T9" s="144"/>
+      <c r="U9" s="144"/>
+      <c r="V9" s="144"/>
     </row>
     <row r="10" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="9"/>
@@ -2783,26 +4374,26 @@
       <c r="V14" s="15"/>
     </row>
     <row r="15" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="133"/>
+      <c r="D15" s="181"/>
+      <c r="E15" s="182"/>
+      <c r="F15" s="182"/>
+      <c r="G15" s="182"/>
       <c r="H15" s="42" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="44"/>
       <c r="J15" s="43"/>
       <c r="K15" s="16"/>
-      <c r="N15" s="131" t="s">
+      <c r="N15" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="O15" s="132"/>
-      <c r="P15" s="133"/>
-      <c r="Q15" s="133"/>
-      <c r="R15" s="133"/>
+      <c r="O15" s="181"/>
+      <c r="P15" s="182"/>
+      <c r="Q15" s="182"/>
+      <c r="R15" s="182"/>
       <c r="S15" s="42" t="s">
         <v>26</v>
       </c>
@@ -2835,13 +4426,13 @@
       <c r="V16" s="45"/>
     </row>
     <row r="17" spans="1:22" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="135"/>
-      <c r="D17" s="135"/>
-      <c r="E17" s="136"/>
+      <c r="B17" s="186"/>
+      <c r="C17" s="186"/>
+      <c r="D17" s="186"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="48" t="s">
         <v>38</v>
       </c>
@@ -2851,20 +4442,20 @@
       <c r="H17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="I17" s="137" t="s">
+      <c r="I17" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="136"/>
+      <c r="J17" s="148"/>
       <c r="K17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="L17" s="134" t="s">
+      <c r="L17" s="185" t="s">
         <v>37</v>
       </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
-      <c r="P17" s="136"/>
+      <c r="M17" s="186"/>
+      <c r="N17" s="186"/>
+      <c r="O17" s="186"/>
+      <c r="P17" s="148"/>
       <c r="Q17" s="48" t="s">
         <v>38</v>
       </c>
@@ -2874,625 +4465,700 @@
       <c r="S17" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="137" t="s">
+      <c r="T17" s="147" t="s">
         <v>41</v>
       </c>
-      <c r="U17" s="136"/>
+      <c r="U17" s="148"/>
       <c r="V17" s="49" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="124"/>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
-      <c r="E18" s="126"/>
+      <c r="A18" s="187"/>
+      <c r="B18" s="188"/>
+      <c r="C18" s="188"/>
+      <c r="D18" s="188"/>
+      <c r="E18" s="189"/>
       <c r="F18" s="52"/>
       <c r="G18" s="52"/>
       <c r="H18" s="53"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="I18" s="162"/>
+      <c r="J18" s="163"/>
       <c r="K18" s="51"/>
-      <c r="L18" s="124"/>
-      <c r="M18" s="125"/>
-      <c r="N18" s="125"/>
-      <c r="O18" s="125"/>
-      <c r="P18" s="126"/>
+      <c r="L18" s="187"/>
+      <c r="M18" s="188"/>
+      <c r="N18" s="188"/>
+      <c r="O18" s="188"/>
+      <c r="P18" s="189"/>
       <c r="Q18" s="52"/>
       <c r="R18" s="52"/>
       <c r="S18" s="53"/>
-      <c r="T18" s="127"/>
-      <c r="U18" s="128"/>
+      <c r="T18" s="162"/>
+      <c r="U18" s="163"/>
       <c r="V18" s="51"/>
     </row>
     <row r="19" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="101"/>
-      <c r="B19" s="102"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="168"/>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
       <c r="H19" s="56"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="105"/>
+      <c r="I19" s="140"/>
+      <c r="J19" s="141"/>
       <c r="K19" s="54"/>
-      <c r="L19" s="101"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="103"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="168"/>
       <c r="Q19" s="55"/>
       <c r="R19" s="55"/>
       <c r="S19" s="56"/>
-      <c r="T19" s="104"/>
-      <c r="U19" s="105"/>
+      <c r="T19" s="140"/>
+      <c r="U19" s="141"/>
       <c r="V19" s="54"/>
     </row>
     <row r="20" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="101"/>
-      <c r="B20" s="102"/>
-      <c r="C20" s="102"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="167"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="168"/>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
       <c r="H20" s="56"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="105"/>
+      <c r="I20" s="140"/>
+      <c r="J20" s="141"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="101"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="103"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="168"/>
       <c r="Q20" s="55"/>
       <c r="R20" s="55"/>
       <c r="S20" s="56"/>
-      <c r="T20" s="104"/>
-      <c r="U20" s="105"/>
+      <c r="T20" s="140"/>
+      <c r="U20" s="141"/>
       <c r="V20" s="54"/>
     </row>
     <row r="21" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="101"/>
-      <c r="B21" s="102"/>
-      <c r="C21" s="102"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="167"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
       <c r="H21" s="56"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="105"/>
+      <c r="I21" s="140"/>
+      <c r="J21" s="141"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="103"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="168"/>
       <c r="Q21" s="55"/>
       <c r="R21" s="55"/>
       <c r="S21" s="56"/>
-      <c r="T21" s="104"/>
-      <c r="U21" s="105"/>
+      <c r="T21" s="140"/>
+      <c r="U21" s="141"/>
       <c r="V21" s="54"/>
     </row>
     <row r="22" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="101"/>
-      <c r="B22" s="102"/>
-      <c r="C22" s="102"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
+      <c r="A22" s="166"/>
+      <c r="B22" s="167"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="168"/>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
       <c r="H22" s="56"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="105"/>
+      <c r="I22" s="140"/>
+      <c r="J22" s="141"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="101"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="103"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="168"/>
       <c r="Q22" s="55"/>
       <c r="R22" s="55"/>
       <c r="S22" s="56"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="105"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="141"/>
       <c r="V22" s="54"/>
     </row>
     <row r="23" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="101"/>
-      <c r="B23" s="102"/>
-      <c r="C23" s="102"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="167"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="168"/>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
       <c r="H23" s="56"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="105"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="141"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="101"/>
-      <c r="M23" s="102"/>
-      <c r="N23" s="102"/>
-      <c r="O23" s="102"/>
-      <c r="P23" s="103"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="168"/>
       <c r="Q23" s="55"/>
       <c r="R23" s="55"/>
       <c r="S23" s="56"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="105"/>
+      <c r="T23" s="140"/>
+      <c r="U23" s="141"/>
       <c r="V23" s="54"/>
     </row>
     <row r="24" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="167"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="168"/>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
       <c r="H24" s="56"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="105"/>
+      <c r="I24" s="140"/>
+      <c r="J24" s="141"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="101"/>
-      <c r="M24" s="102"/>
-      <c r="N24" s="102"/>
-      <c r="O24" s="102"/>
-      <c r="P24" s="103"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="168"/>
       <c r="Q24" s="55"/>
       <c r="R24" s="55"/>
       <c r="S24" s="56"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="105"/>
+      <c r="T24" s="140"/>
+      <c r="U24" s="141"/>
       <c r="V24" s="54"/>
     </row>
     <row r="25" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="101"/>
-      <c r="B25" s="102"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="167"/>
+      <c r="C25" s="167"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="168"/>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
       <c r="H25" s="56"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="105"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="141"/>
       <c r="K25" s="54"/>
-      <c r="L25" s="101"/>
-      <c r="M25" s="102"/>
-      <c r="N25" s="102"/>
-      <c r="O25" s="102"/>
-      <c r="P25" s="103"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="168"/>
       <c r="Q25" s="55"/>
       <c r="R25" s="55"/>
       <c r="S25" s="56"/>
-      <c r="T25" s="104"/>
-      <c r="U25" s="105"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="141"/>
       <c r="V25" s="54"/>
     </row>
     <row r="26" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="101"/>
-      <c r="B26" s="102"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="167"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="168"/>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
       <c r="H26" s="56"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="105"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="141"/>
       <c r="K26" s="54"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="102"/>
-      <c r="N26" s="102"/>
-      <c r="O26" s="102"/>
-      <c r="P26" s="103"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="168"/>
       <c r="Q26" s="55"/>
       <c r="R26" s="55"/>
       <c r="S26" s="56"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="105"/>
+      <c r="T26" s="140"/>
+      <c r="U26" s="141"/>
       <c r="V26" s="54"/>
     </row>
     <row r="27" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="101"/>
-      <c r="B27" s="102"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="167"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="168"/>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
       <c r="H27" s="56"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="105"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
       <c r="K27" s="54"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="102"/>
-      <c r="N27" s="102"/>
-      <c r="O27" s="102"/>
-      <c r="P27" s="103"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="168"/>
       <c r="Q27" s="55"/>
       <c r="R27" s="55"/>
       <c r="S27" s="56"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="105"/>
+      <c r="T27" s="140"/>
+      <c r="U27" s="141"/>
       <c r="V27" s="54"/>
     </row>
     <row r="28" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="101"/>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="167"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="168"/>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="105"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
       <c r="K28" s="54"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="103"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="168"/>
       <c r="Q28" s="55"/>
       <c r="R28" s="55"/>
       <c r="S28" s="56"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="105"/>
+      <c r="T28" s="140"/>
+      <c r="U28" s="141"/>
       <c r="V28" s="54"/>
     </row>
     <row r="29" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="101"/>
-      <c r="B29" s="102"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="167"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="168"/>
       <c r="F29" s="55"/>
       <c r="G29" s="55"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="105"/>
+      <c r="I29" s="140"/>
+      <c r="J29" s="141"/>
       <c r="K29" s="57"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="102"/>
-      <c r="N29" s="102"/>
-      <c r="O29" s="102"/>
-      <c r="P29" s="103"/>
+      <c r="L29" s="166"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="168"/>
       <c r="Q29" s="55"/>
       <c r="R29" s="55"/>
       <c r="S29" s="56"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="105"/>
+      <c r="T29" s="140"/>
+      <c r="U29" s="141"/>
       <c r="V29" s="57"/>
     </row>
     <row r="30" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="101"/>
-      <c r="B30" s="102"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="120"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="167"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="174"/>
       <c r="F30" s="63"/>
       <c r="G30" s="55"/>
       <c r="H30" s="62"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="119"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="158"/>
       <c r="K30" s="58"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="102"/>
-      <c r="N30" s="102"/>
-      <c r="O30" s="102"/>
-      <c r="P30" s="120"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="174"/>
       <c r="Q30" s="63"/>
       <c r="R30" s="55"/>
       <c r="S30" s="62"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="119"/>
+      <c r="T30" s="161"/>
+      <c r="U30" s="158"/>
       <c r="V30" s="58"/>
     </row>
     <row r="31" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="101"/>
-      <c r="B31" s="102"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="167"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="168"/>
       <c r="F31" s="55"/>
       <c r="G31" s="59"/>
       <c r="H31" s="60"/>
-      <c r="I31" s="122"/>
-      <c r="J31" s="123"/>
+      <c r="I31" s="159"/>
+      <c r="J31" s="160"/>
       <c r="K31" s="61"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="102"/>
-      <c r="N31" s="102"/>
-      <c r="O31" s="102"/>
-      <c r="P31" s="103"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="168"/>
       <c r="Q31" s="55"/>
       <c r="R31" s="59"/>
       <c r="S31" s="60"/>
-      <c r="T31" s="122"/>
-      <c r="U31" s="123"/>
+      <c r="T31" s="159"/>
+      <c r="U31" s="160"/>
       <c r="V31" s="61"/>
     </row>
     <row r="32" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="101"/>
-      <c r="B32" s="102"/>
-      <c r="C32" s="102"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="167"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="168"/>
       <c r="F32" s="55"/>
       <c r="G32" s="55"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="105"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="141"/>
       <c r="K32" s="54"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="102"/>
-      <c r="N32" s="102"/>
-      <c r="O32" s="102"/>
-      <c r="P32" s="103"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="168"/>
       <c r="Q32" s="55"/>
       <c r="R32" s="55"/>
       <c r="S32" s="56"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="105"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="141"/>
       <c r="V32" s="54"/>
     </row>
     <row r="33" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="101"/>
-      <c r="B33" s="102"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="167"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="168"/>
       <c r="F33" s="55"/>
       <c r="G33" s="55"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="105"/>
+      <c r="I33" s="140"/>
+      <c r="J33" s="141"/>
       <c r="K33" s="54"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="102"/>
-      <c r="N33" s="102"/>
-      <c r="O33" s="102"/>
-      <c r="P33" s="103"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="168"/>
       <c r="Q33" s="55"/>
       <c r="R33" s="55"/>
       <c r="S33" s="56"/>
-      <c r="T33" s="104"/>
-      <c r="U33" s="105"/>
+      <c r="T33" s="140"/>
+      <c r="U33" s="141"/>
       <c r="V33" s="54"/>
     </row>
     <row r="34" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="101"/>
-      <c r="B34" s="102"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="102"/>
-      <c r="E34" s="103"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="167"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="168"/>
       <c r="F34" s="55"/>
       <c r="G34" s="55"/>
       <c r="H34" s="56"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="105"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="54"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="102"/>
-      <c r="N34" s="102"/>
-      <c r="O34" s="102"/>
-      <c r="P34" s="103"/>
+      <c r="L34" s="166"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="168"/>
       <c r="Q34" s="55"/>
       <c r="R34" s="55"/>
       <c r="S34" s="56"/>
-      <c r="T34" s="104"/>
-      <c r="U34" s="105"/>
+      <c r="T34" s="140"/>
+      <c r="U34" s="141"/>
       <c r="V34" s="54"/>
     </row>
     <row r="35" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="115"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
-      <c r="D35" s="116"/>
-      <c r="E35" s="117"/>
+      <c r="A35" s="169"/>
+      <c r="B35" s="170"/>
+      <c r="C35" s="170"/>
+      <c r="D35" s="170"/>
+      <c r="E35" s="171"/>
       <c r="F35" s="63"/>
       <c r="G35" s="55"/>
       <c r="H35" s="62"/>
-      <c r="I35" s="118"/>
-      <c r="J35" s="119"/>
+      <c r="I35" s="157"/>
+      <c r="J35" s="158"/>
       <c r="K35" s="64"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="117"/>
+      <c r="L35" s="169"/>
+      <c r="M35" s="170"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="170"/>
+      <c r="P35" s="171"/>
       <c r="Q35" s="63"/>
       <c r="R35" s="55"/>
       <c r="S35" s="62"/>
-      <c r="T35" s="118"/>
-      <c r="U35" s="119"/>
+      <c r="T35" s="157"/>
+      <c r="U35" s="158"/>
       <c r="V35" s="64"/>
     </row>
     <row r="36" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="101"/>
-      <c r="B36" s="102"/>
-      <c r="C36" s="102"/>
-      <c r="D36" s="102"/>
-      <c r="E36" s="103"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="168"/>
       <c r="F36" s="55"/>
       <c r="G36" s="55"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="105"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="141"/>
       <c r="K36" s="57"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="102"/>
-      <c r="N36" s="102"/>
-      <c r="O36" s="102"/>
-      <c r="P36" s="103"/>
+      <c r="L36" s="166"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="168"/>
       <c r="Q36" s="55"/>
       <c r="R36" s="55"/>
       <c r="S36" s="56"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="105"/>
+      <c r="T36" s="140"/>
+      <c r="U36" s="141"/>
       <c r="V36" s="57"/>
     </row>
     <row r="37" spans="1:22" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="106"/>
-      <c r="B37" s="107"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="108"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="176"/>
+      <c r="C37" s="176"/>
+      <c r="D37" s="176"/>
+      <c r="E37" s="177"/>
       <c r="F37" s="71"/>
       <c r="G37" s="71"/>
       <c r="H37" s="72"/>
-      <c r="I37" s="109"/>
-      <c r="J37" s="110"/>
+      <c r="I37" s="155"/>
+      <c r="J37" s="156"/>
       <c r="K37" s="73"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="108"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="176"/>
+      <c r="N37" s="176"/>
+      <c r="O37" s="176"/>
+      <c r="P37" s="177"/>
       <c r="Q37" s="71"/>
       <c r="R37" s="71"/>
       <c r="S37" s="72"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="110"/>
+      <c r="T37" s="155"/>
+      <c r="U37" s="156"/>
       <c r="V37" s="73"/>
     </row>
     <row r="38" spans="1:22" ht="21.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="111" t="s">
+      <c r="F38" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="112"/>
+      <c r="G38" s="165"/>
       <c r="H38" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="I38" s="113">
+      <c r="I38" s="153">
         <f>SUM(I18:I37)</f>
         <v>0</v>
       </c>
-      <c r="J38" s="114"/>
+      <c r="J38" s="154"/>
       <c r="K38" s="68"/>
       <c r="L38" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="111" t="s">
+      <c r="Q38" s="164" t="s">
         <v>28</v>
       </c>
-      <c r="R38" s="112"/>
+      <c r="R38" s="165"/>
       <c r="S38" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="T38" s="113">
+      <c r="T38" s="153">
         <f>SUM(T18:T37)</f>
         <v>0</v>
       </c>
-      <c r="U38" s="114"/>
+      <c r="U38" s="154"/>
       <c r="V38" s="68"/>
     </row>
     <row r="39" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="187"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="189"/>
+      <c r="A39" s="192"/>
+      <c r="B39" s="193"/>
+      <c r="C39" s="193"/>
+      <c r="D39" s="193"/>
+      <c r="E39" s="194"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="136"/>
       <c r="H39" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="I39" s="104"/>
-      <c r="J39" s="105"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="187"/>
-      <c r="M39" s="188"/>
-      <c r="N39" s="188"/>
-      <c r="O39" s="188"/>
-      <c r="P39" s="189"/>
-      <c r="Q39" s="193"/>
-      <c r="R39" s="189"/>
+      <c r="I39" s="140"/>
+      <c r="J39" s="141"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="193"/>
+      <c r="N39" s="193"/>
+      <c r="O39" s="193"/>
+      <c r="P39" s="194"/>
+      <c r="Q39" s="138"/>
+      <c r="R39" s="136"/>
       <c r="S39" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="T39" s="104"/>
-      <c r="U39" s="105"/>
-      <c r="V39" s="195"/>
+      <c r="T39" s="140"/>
+      <c r="U39" s="141"/>
+      <c r="V39" s="76"/>
     </row>
     <row r="40" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="187"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="189"/>
+      <c r="A40" s="192"/>
+      <c r="B40" s="193"/>
+      <c r="C40" s="193"/>
+      <c r="D40" s="193"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="138"/>
+      <c r="G40" s="136"/>
       <c r="H40" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="96"/>
-      <c r="J40" s="97"/>
+      <c r="I40" s="151"/>
+      <c r="J40" s="152"/>
       <c r="K40" s="69"/>
-      <c r="L40" s="187"/>
-      <c r="M40" s="188"/>
-      <c r="N40" s="188"/>
-      <c r="O40" s="188"/>
-      <c r="P40" s="189"/>
-      <c r="Q40" s="193"/>
-      <c r="R40" s="189"/>
+      <c r="L40" s="192"/>
+      <c r="M40" s="193"/>
+      <c r="N40" s="193"/>
+      <c r="O40" s="193"/>
+      <c r="P40" s="194"/>
+      <c r="Q40" s="138"/>
+      <c r="R40" s="136"/>
       <c r="S40" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="T40" s="96"/>
-      <c r="U40" s="97"/>
+      <c r="T40" s="151"/>
+      <c r="U40" s="152"/>
       <c r="V40" s="69"/>
     </row>
     <row r="41" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="190"/>
-      <c r="B41" s="191"/>
-      <c r="C41" s="191"/>
-      <c r="D41" s="191"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="192"/>
+      <c r="A41" s="195"/>
+      <c r="B41" s="196"/>
+      <c r="C41" s="196"/>
+      <c r="D41" s="196"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="139"/>
+      <c r="G41" s="137"/>
       <c r="H41" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="I41" s="98"/>
-      <c r="J41" s="99"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
       <c r="K41" s="70"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="191"/>
-      <c r="N41" s="191"/>
-      <c r="O41" s="191"/>
-      <c r="P41" s="192"/>
-      <c r="Q41" s="194"/>
-      <c r="R41" s="192"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
+      <c r="O41" s="196"/>
+      <c r="P41" s="197"/>
+      <c r="Q41" s="139"/>
+      <c r="R41" s="137"/>
       <c r="S41" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="T41" s="98"/>
-      <c r="U41" s="99"/>
+      <c r="T41" s="149"/>
+      <c r="U41" s="150"/>
       <c r="V41" s="70"/>
     </row>
     <row r="42" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="132">
-    <mergeCell ref="L39:P41"/>
-    <mergeCell ref="Q39:R41"/>
-    <mergeCell ref="T39:U39"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="T40:U40"/>
+    <mergeCell ref="T41:U41"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="L36:P36"/>
+    <mergeCell ref="T36:U36"/>
+    <mergeCell ref="L37:P37"/>
+    <mergeCell ref="T37:U37"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="L33:P33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="L34:P34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="L35:P35"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="L30:P30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="L31:P31"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="L32:P32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="L27:P27"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="L28:P28"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="L29:P29"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="L24:P24"/>
+    <mergeCell ref="T24:U24"/>
+    <mergeCell ref="L25:P25"/>
+    <mergeCell ref="T25:U25"/>
+    <mergeCell ref="L26:P26"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="L22:P22"/>
+    <mergeCell ref="T22:U22"/>
+    <mergeCell ref="L23:P23"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="L18:P18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="L19:P19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="L20:P20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="A39:E41"/>
+    <mergeCell ref="F39:G41"/>
+    <mergeCell ref="I39:J39"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A32:E32"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="L9:N9"/>
     <mergeCell ref="H9:K9"/>
@@ -3517,47 +5183,15 @@
     <mergeCell ref="I20:J20"/>
     <mergeCell ref="I19:J19"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A39:E41"/>
-    <mergeCell ref="F39:G41"/>
-    <mergeCell ref="I39:J39"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="H4:K4"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L39:P41"/>
+    <mergeCell ref="Q39:R41"/>
+    <mergeCell ref="T39:U39"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I21:J21"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="S8:V8"/>
     <mergeCell ref="N15:O15"/>
@@ -3573,49 +5207,6 @@
     <mergeCell ref="S9:V9"/>
     <mergeCell ref="L21:P21"/>
     <mergeCell ref="T21:U21"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="T22:U22"/>
-    <mergeCell ref="L23:P23"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="L18:P18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="L19:P19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="L20:P20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="L28:P28"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="L29:P29"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="L24:P24"/>
-    <mergeCell ref="T24:U24"/>
-    <mergeCell ref="L25:P25"/>
-    <mergeCell ref="T25:U25"/>
-    <mergeCell ref="L26:P26"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="T40:U40"/>
-    <mergeCell ref="T41:U41"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="L36:P36"/>
-    <mergeCell ref="T36:U36"/>
-    <mergeCell ref="L37:P37"/>
-    <mergeCell ref="T37:U37"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:U38"/>
-    <mergeCell ref="L33:P33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="L34:P34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="L35:P35"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="L30:P30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="L31:P31"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="L32:P32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="L27:P27"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
